--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -2,55 +2,61 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75A935B-3B74-47DA-9504-3B426C532091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A49A1B-A89C-4014-AAA5-D653FA472333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="sex" sheetId="1" r:id="rId1"/>
+    <sheet name="SEX" sheetId="1" r:id="rId1"/>
+    <sheet name="DIRECTION" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>man</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>man | woman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>MAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAN | WOMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOTTOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39046541-05ED-4D1B-A199-7B090CD6E48E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -471,4 +477,52 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB188D-3B26-41D9-B64A-51D7BDB1D0A9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A49A1B-A89C-4014-AAA5-D653FA472333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E49F7-02C4-4803-B043-EF27D4E1A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
     <sheet name="DIRECTION" sheetId="2" r:id="rId2"/>
+    <sheet name="OBJECT_TYPE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>MAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,62 @@
   </si>
   <si>
     <t>BOTTOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB | SESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM | NPC | MOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +132,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -103,8 +168,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB188D-3B26-41D9-B64A-51D7BDB1D0A9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -525,4 +593,81 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489DB575-F218-4B7C-A32A-5F4BB8C4273D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -5,17 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E49F7-02C4-4803-B043-EF27D4E1A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051699DD-32D9-4ADD-BD49-9C1F8FD01863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="7" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
     <sheet name="DIRECTION" sheetId="2" r:id="rId2"/>
     <sheet name="OBJECT_TYPE" sheetId="3" r:id="rId3"/>
+    <sheet name="CREATURE" sheetId="4" r:id="rId4"/>
+    <sheet name="NATION" sheetId="5" r:id="rId5"/>
+    <sheet name="ACTION" sheetId="6" r:id="rId6"/>
+    <sheet name="STATE" sheetId="7" r:id="rId7"/>
+    <sheet name="CONDITION" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>MAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,13 +120,121 @@
   <si>
     <t>0x08</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHOENIX</t>
+  </si>
+  <si>
+    <t>TIGER</t>
+  </si>
+  <si>
+    <t>TURTLE</t>
+  </si>
+  <si>
+    <t>DRAGON</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>GOGURYEO</t>
+  </si>
+  <si>
+    <t>BUYEO</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>ARROW</t>
+  </si>
+  <si>
+    <t>EMOTION</t>
+  </si>
+  <si>
+    <t>PICKUP</t>
+  </si>
+  <si>
+    <t>PICKUP_SILENT</t>
+  </si>
+  <si>
+    <t>CAST_SPELL</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>GHOST</t>
+  </si>
+  <si>
+    <t>TRANSLUCENCY</t>
+  </si>
+  <si>
+    <t>RIDING</t>
+  </si>
+  <si>
+    <t>DISGUISE</t>
+  </si>
+  <si>
+    <t>HALF_CLOACK</t>
+  </si>
+  <si>
+    <t>CLOACK</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>SIGHT</t>
+  </si>
+  <si>
+    <t>HEAR</t>
+  </si>
+  <si>
+    <t>ORAL</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>0x10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +255,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -168,11 +289,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489DB575-F218-4B7C-A32A-5F4BB8C4273D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -670,4 +794,307 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30426EE-1EEF-4AE4-A8DB-5D3DB40D56EE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1834AE54-D813-4ED8-8986-26E6279C1091}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548D9DE6-D212-462C-9516-E80DD638149B}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE56ED-F33B-47ED-86DC-276E9313D0F4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5874E-E9B1-4690-9824-7FB4959F4820}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051699DD-32D9-4ADD-BD49-9C1F8FD01863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2A84E-5986-48E9-992B-C17070968FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="7" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
     <sheet name="ACTION" sheetId="6" r:id="rId6"/>
     <sheet name="STATE" sheetId="7" r:id="rId7"/>
     <sheet name="CONDITION" sheetId="8" r:id="rId8"/>
+    <sheet name="SOUND" sheetId="9" r:id="rId9"/>
+    <sheet name="DURATION" sheetId="17" r:id="rId10"/>
+    <sheet name="STATE_LEVEL" sheetId="10" r:id="rId11"/>
+    <sheet name="CUSTOM_SETTING" sheetId="11" r:id="rId12"/>
+    <sheet name="MESSAGE_TYPE" sheetId="12" r:id="rId13"/>
+    <sheet name="SWAP_TYPE" sheetId="13" r:id="rId14"/>
+    <sheet name="CHAT_TYPE" sheetId="14" r:id="rId15"/>
+    <sheet name="WEATHER_TYPE" sheetId="15" r:id="rId16"/>
+    <sheet name="TIMER_TYPE" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>MAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +237,196 @@
   </si>
   <si>
     <t>0x10</t>
+  </si>
+  <si>
+    <t>SWING</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_OFF</t>
+  </si>
+  <si>
+    <t>EQUIPMENT_ON</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>0x014B</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>0x019A</t>
+  </si>
+  <si>
+    <t>0x019B</t>
+  </si>
+  <si>
+    <t>0x015D</t>
+  </si>
+  <si>
+    <t>SPELL</t>
+  </si>
+  <si>
+    <t>BASED</t>
+  </si>
+  <si>
+    <t>HP_MP</t>
+  </si>
+  <si>
+    <t>EXP_MONEY</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>LEVEL_MAX</t>
+  </si>
+  <si>
+    <t>LEVEL_MIDDLE</t>
+  </si>
+  <si>
+    <t>LEVEL_MIN</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>BASED | HP_MP | EXP_MONEY | CONDITION</t>
+  </si>
+  <si>
+    <t>HP_MP | EXP_MONEY | CONDITION</t>
+  </si>
+  <si>
+    <t>EXP_MONEY | CONDITION</t>
+  </si>
+  <si>
+    <t>RIDE</t>
+  </si>
+  <si>
+    <t>WHISPER</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>ROAR</t>
+  </si>
+  <si>
+    <t>ROAR_WORLDS</t>
+  </si>
+  <si>
+    <t>MAGIC_EFFECT</t>
+  </si>
+  <si>
+    <t>WEATHER_EFFECT</t>
+  </si>
+  <si>
+    <t>FIXED_MOVE</t>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>FAST_MOVE</t>
+  </si>
+  <si>
+    <t>EFFECT_SOUND</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>NOTIFY</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>SHOUT</t>
+  </si>
+  <si>
+    <t>WORLD</t>
+  </si>
+  <si>
+    <t>POPUP</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>LIGHT_BLUE</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>BIRD</t>
+  </si>
+  <si>
+    <t>INCREASE</t>
+  </si>
+  <si>
+    <t>DECREASE</t>
+  </si>
+  <si>
+    <t>DISGUISE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0019</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>THROW</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>0x27</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x4E</t>
+  </si>
+  <si>
+    <t>0x28</t>
   </si>
 </sst>
 </file>
@@ -671,6 +870,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37600B40-33CE-4745-8CB9-BB2169DC8D7A}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE966F6D-82AF-41F8-894B-03F8136241A1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1ABC7A-1A46-42A2-B198-A73E04715834}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDEFCDC-0D99-4CCA-AEFF-C483B2B7AA1B}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB8BC29-7B8B-4407-82A2-F03CF66BF792}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB782B33-B158-4B2E-A80C-B1B2C2B06F04}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B212B2A-4A84-4835-BBA1-3FE883FFB899}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57336114-8A4F-4C9D-A254-6C6CDC1C1C51}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB188D-3B26-41D9-B64A-51D7BDB1D0A9}">
   <dimension ref="A1:B4"/>
@@ -1036,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5874E-E9B1-4690-9824-7FB4959F4820}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1097,4 +1809,72 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC28DC83-603A-4A95-BB7A-C0827113A5A5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2A84E-5986-48E9-992B-C17070968FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE04860-059F-4A4D-91CA-D62F70EB7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37600B40-33CE-4745-8CB9-BB2169DC8D7A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1387,42 +1387,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB188D-3B26-41D9-B64A-51D7BDB1D0A9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE04860-059F-4A4D-91CA-D62F70EB7EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9A117-EFF0-403D-86B3-C0E2CEC0BCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
     <sheet name="DIRECTION" sheetId="2" r:id="rId2"/>
-    <sheet name="OBJECT_TYPE" sheetId="3" r:id="rId3"/>
-    <sheet name="CREATURE" sheetId="4" r:id="rId4"/>
-    <sheet name="NATION" sheetId="5" r:id="rId5"/>
-    <sheet name="ACTION" sheetId="6" r:id="rId6"/>
-    <sheet name="STATE" sheetId="7" r:id="rId7"/>
-    <sheet name="CONDITION" sheetId="8" r:id="rId8"/>
-    <sheet name="SOUND" sheetId="9" r:id="rId9"/>
-    <sheet name="DURATION" sheetId="17" r:id="rId10"/>
-    <sheet name="STATE_LEVEL" sheetId="10" r:id="rId11"/>
-    <sheet name="CUSTOM_SETTING" sheetId="11" r:id="rId12"/>
-    <sheet name="MESSAGE_TYPE" sheetId="12" r:id="rId13"/>
-    <sheet name="SWAP_TYPE" sheetId="13" r:id="rId14"/>
-    <sheet name="CHAT_TYPE" sheetId="14" r:id="rId15"/>
-    <sheet name="WEATHER_TYPE" sheetId="15" r:id="rId16"/>
-    <sheet name="TIMER_TYPE" sheetId="16" r:id="rId17"/>
+    <sheet name="DESTROY_TYPE" sheetId="18" r:id="rId3"/>
+    <sheet name="OBJECT_TYPE" sheetId="3" r:id="rId4"/>
+    <sheet name="CREATURE" sheetId="4" r:id="rId5"/>
+    <sheet name="NATION" sheetId="5" r:id="rId6"/>
+    <sheet name="ACTION" sheetId="6" r:id="rId7"/>
+    <sheet name="STATE" sheetId="7" r:id="rId8"/>
+    <sheet name="CONDITION" sheetId="8" r:id="rId9"/>
+    <sheet name="SOUND" sheetId="9" r:id="rId10"/>
+    <sheet name="DURATION" sheetId="17" r:id="rId11"/>
+    <sheet name="STATE_LEVEL" sheetId="10" r:id="rId12"/>
+    <sheet name="CUSTOM_SETTING" sheetId="11" r:id="rId13"/>
+    <sheet name="MESSAGE_TYPE" sheetId="12" r:id="rId14"/>
+    <sheet name="SWAP_TYPE" sheetId="13" r:id="rId15"/>
+    <sheet name="CHAT_TYPE" sheetId="14" r:id="rId16"/>
+    <sheet name="WEATHER_TYPE" sheetId="15" r:id="rId17"/>
+    <sheet name="TIMER_TYPE" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>MAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +428,14 @@
   </si>
   <si>
     <t>0x28</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -871,6 +880,74 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC28DC83-603A-4A95-BB7A-C0827113A5A5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37600B40-33CE-4745-8CB9-BB2169DC8D7A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -946,7 +1023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE966F6D-82AF-41F8-894B-03F8136241A1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1023,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1ABC7A-1A46-42A2-B198-A73E04715834}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1140,7 +1217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDEFCDC-0D99-4CCA-AEFF-C483B2B7AA1B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1223,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB8BC29-7B8B-4407-82A2-F03CF66BF792}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1255,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB782B33-B158-4B2E-A80C-B1B2C2B06F04}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1303,7 +1380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B212B2A-4A84-4835-BBA1-3FE883FFB899}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1351,7 +1428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57336114-8A4F-4C9D-A254-6C6CDC1C1C51}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1387,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFB188D-3B26-41D9-B64A-51D7BDB1D0A9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1435,6 +1512,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6499859-0EA3-4C78-B4A3-FBC5B2C22947}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489DB575-F218-4B7C-A32A-5F4BB8C4273D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1511,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30426EE-1EEF-4AE4-A8DB-5D3DB40D56EE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1562,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1834AE54-D813-4ED8-8986-26E6279C1091}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1597,7 +1706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548D9DE6-D212-462C-9516-E80DD638149B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1672,7 +1781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE56ED-F33B-47ED-86DC-276E9313D0F4}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1747,7 +1856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5874E-E9B1-4690-9824-7FB4959F4820}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1812,72 +1921,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC28DC83-603A-4A95-BB7A-C0827113A5A5}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/table/enum.xlsx
+++ b/resources/table/enum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9A117-EFF0-403D-86B3-C0E2CEC0BCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF825DCA-B7CE-49FA-9C09-3B266F89476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{08B6B988-6A34-4205-94C2-FA55368096A2}"/>
   </bookViews>
   <sheets>
     <sheet name="SEX" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SESSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LIFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOB | SESSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITEM | NPC | MOB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +427,14 @@
   </si>
   <si>
     <t>DEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB | CHARACTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,50 +895,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -963,58 +963,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1040,58 +1040,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1117,98 +1117,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1232,66 +1232,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1312,18 +1312,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1344,34 +1344,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1392,34 +1392,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1440,18 +1440,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1515,15 +1515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6499859-0EA3-4C78-B4A3-FBC5B2C22947}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489DB575-F218-4B7C-A32A-5F4BB8C4273D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,31 +1587,31 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1635,34 +1635,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1686,18 +1686,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1721,58 +1721,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1796,58 +1796,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1871,50 +1871,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
